--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eltco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD2723B3-8096-4D00-B25E-84588271EA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0896C9E1-CB13-452C-ADF4-AA86B140D177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="18915" windowHeight="16875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2121,11 +2121,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="107.42578125" customWidth="1"/>
@@ -2198,7 +2198,7 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -2654,16 +2654,16 @@
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="72">
+    <row r="1" spans="1:34" ht="75">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -3324,132 +3324,100 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <f>'Pop and GDP'!D4/'Pop and GDP'!C4</f>
-        <v>1.0110068026843755</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f>'Pop and GDP'!E4/'Pop and GDP'!C4</f>
-        <v>1.0219866212974482</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <f>'Pop and GDP'!F4/'Pop and GDP'!C4</f>
-        <v>1.0330716777886013</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <f>'Pop and GDP'!G4/'Pop and GDP'!C4</f>
-        <v>1.0441297502084519</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <f>'Pop and GDP'!H4/'Pop and GDP'!C4</f>
-        <v>1.0551446481142182</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <f>'Pop and GDP'!I4/'Pop and GDP'!C4</f>
-        <v>1.0661136730987697</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <f>'Pop and GDP'!J4/'Pop and GDP'!C4</f>
-        <v>1.0770206347193252</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <f>'Pop and GDP'!K4/'Pop and GDP'!C4</f>
-        <v>1.0878601361616238</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <f>'Pop and GDP'!L4/'Pop and GDP'!C4</f>
-        <v>1.098615986982884</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <f>'Pop and GDP'!M4/'Pop and GDP'!C4</f>
-        <v>1.1092827903688454</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <f>'Pop and GDP'!N4/'Pop and GDP'!C4</f>
-        <v>1.1198443558767259</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <f>'Pop and GDP'!O4/'Pop and GDP'!C4</f>
-        <v>1.1302952866922655</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <f>'Pop and GDP'!P4/'Pop and GDP'!C4</f>
-        <v>1.1406274875940732</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <f>'Pop and GDP'!Q4/'Pop and GDP'!C4</f>
-        <v>1.1508328633607581</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <f>'Pop and GDP'!R4/'Pop and GDP'!C4</f>
-        <v>1.1609114139923202</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <f>'Pop and GDP'!S4/'Pop and GDP'!C4</f>
-        <v>1.1708577426744993</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <f>'Pop and GDP'!T4/'Pop and GDP'!C4</f>
-        <v>1.1806772462215553</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <f>'Pop and GDP'!U4/'Pop and GDP'!C4</f>
-        <v>1.1903726230406191</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <f>'Pop and GDP'!V4/'Pop and GDP'!C4</f>
-        <v>1.1999411747245601</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <f>'Pop and GDP'!W4/'Pop and GDP'!C4</f>
-        <v>1.2093882980876389</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <f>'Pop and GDP'!X4/'Pop and GDP'!C4</f>
-        <v>1.218719389944116</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <f>'Pop and GDP'!Y4/'Pop and GDP'!C4</f>
-        <v>1.2279317518868611</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <f>'Pop and GDP'!Z4/'Pop and GDP'!C4</f>
-        <v>1.2370307807301351</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <f>'Pop and GDP'!AA4/'Pop and GDP'!C4</f>
-        <v>1.2460137780668072</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <f>'Pop and GDP'!AB4/'Pop and GDP'!C4</f>
-        <v>1.2548834423040078</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <f>'Pop and GDP'!AC4/'Pop and GDP'!C4</f>
-        <v>1.263685646362952</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <f>'Pop and GDP'!AD4/'Pop and GDP'!C4</f>
-        <v>1.2724419775006814</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <f>'Pop and GDP'!AE4/'Pop and GDP'!C4</f>
-        <v>1.2811551341243264</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <f>'Pop and GDP'!AF4/'Pop and GDP'!C4</f>
-        <v>1.2898359098624081</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <f>'Pop and GDP'!AG4/'Pop and GDP'!C4</f>
-        <v>1.2984950983434478</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <f>'Pop and GDP'!AH4/'Pop and GDP'!C4</f>
-        <v>1.3071434931959665</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <f>'Pop and GDP'!AI4/'Pop and GDP'!C4</f>
-        <v>1.3157999832698757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -3602,16 +3570,16 @@
   </sheetPr>
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="D6:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="72">
+    <row r="1" spans="1:34" ht="75">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -4272,132 +4240,132 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <f>'Pop and GDP'!D10/'Pop and GDP'!C10</f>
-        <v>1.0163630232698253</v>
+        <f>'Pop and GDP'!D10/'Pop and GDP'!D10</f>
+        <v>1</v>
       </c>
       <c r="D6">
-        <f>'Pop and GDP'!E10/'Pop and GDP'!C10</f>
-        <v>0.95585234262791796</v>
+        <f>'Pop and GDP'!E10/'Pop and GDP'!E10</f>
+        <v>1</v>
       </c>
       <c r="E6">
-        <f>'Pop and GDP'!F10/'Pop and GDP'!C10</f>
-        <v>0.99785629187081781</v>
+        <f>'Pop and GDP'!F10/'Pop and GDP'!F10</f>
+        <v>1</v>
       </c>
       <c r="F6">
-        <f>'Pop and GDP'!G10/'Pop and GDP'!C10</f>
-        <v>1.0280061959578566</v>
+        <f>'Pop and GDP'!G10/'Pop and GDP'!G10</f>
+        <v>1</v>
       </c>
       <c r="G6">
-        <f>'Pop and GDP'!H10/'Pop and GDP'!C10</f>
-        <v>1.0478359820340544</v>
+        <f>'Pop and GDP'!H10/'Pop and GDP'!H10</f>
+        <v>1</v>
       </c>
       <c r="H6">
-        <f>'Pop and GDP'!I10/'Pop and GDP'!C10</f>
-        <v>1.0688226513957426</v>
+        <f>'Pop and GDP'!I10/'Pop and GDP'!I10</f>
+        <v>1</v>
       </c>
       <c r="I6">
-        <f>'Pop and GDP'!J10/'Pop and GDP'!C10</f>
-        <v>1.0891261717026639</v>
+        <f>'Pop and GDP'!J10/'Pop and GDP'!J10</f>
+        <v>1</v>
       </c>
       <c r="J6">
-        <f>'Pop and GDP'!K10/'Pop and GDP'!C10</f>
-        <v>1.1127210516802746</v>
+        <f>'Pop and GDP'!K10/'Pop and GDP'!K10</f>
+        <v>1</v>
       </c>
       <c r="K6">
-        <f>'Pop and GDP'!L10/'Pop and GDP'!C10</f>
-        <v>1.1363086434389509</v>
+        <f>'Pop and GDP'!L10/'Pop and GDP'!L10</f>
+        <v>1</v>
       </c>
       <c r="L6">
-        <f>'Pop and GDP'!M10/'Pop and GDP'!C10</f>
-        <v>1.1580382252506662</v>
+        <f>'Pop and GDP'!M10/'Pop and GDP'!M10</f>
+        <v>1</v>
       </c>
       <c r="M6">
-        <f>'Pop and GDP'!N10/'Pop and GDP'!C10</f>
-        <v>1.1765371825494773</v>
+        <f>'Pop and GDP'!N10/'Pop and GDP'!N10</f>
+        <v>1</v>
       </c>
       <c r="N6">
-        <f>'Pop and GDP'!O10/'Pop and GDP'!C10</f>
-        <v>1.1930284784725449</v>
+        <f>'Pop and GDP'!O10/'Pop and GDP'!O10</f>
+        <v>1</v>
       </c>
       <c r="O6">
-        <f>'Pop and GDP'!P10/'Pop and GDP'!C10</f>
-        <v>1.2112796363275928</v>
+        <f>'Pop and GDP'!P10/'Pop and GDP'!P10</f>
+        <v>1</v>
       </c>
       <c r="P6">
-        <f>'Pop and GDP'!Q10/'Pop and GDP'!C10</f>
-        <v>1.23167595995561</v>
+        <f>'Pop and GDP'!Q10/'Pop and GDP'!Q10</f>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <f>'Pop and GDP'!R10/'Pop and GDP'!C10</f>
-        <v>1.249665713691551</v>
+        <f>'Pop and GDP'!R10/'Pop and GDP'!R10</f>
+        <v>1</v>
       </c>
       <c r="R6">
-        <f>'Pop and GDP'!S10/'Pop and GDP'!C10</f>
-        <v>1.2655817262000781</v>
+        <f>'Pop and GDP'!S10/'Pop and GDP'!S10</f>
+        <v>1</v>
       </c>
       <c r="S6">
-        <f>'Pop and GDP'!T10/'Pop and GDP'!C10</f>
-        <v>1.2819802188020499</v>
+        <f>'Pop and GDP'!T10/'Pop and GDP'!T10</f>
+        <v>1</v>
       </c>
       <c r="T6">
-        <f>'Pop and GDP'!U10/'Pop and GDP'!C10</f>
-        <v>1.2976450306979781</v>
+        <f>'Pop and GDP'!U10/'Pop and GDP'!U10</f>
+        <v>1</v>
       </c>
       <c r="U6">
-        <f>'Pop and GDP'!V10/'Pop and GDP'!C10</f>
-        <v>1.314053726806458</v>
+        <f>'Pop and GDP'!V10/'Pop and GDP'!V10</f>
+        <v>1</v>
       </c>
       <c r="V6">
-        <f>'Pop and GDP'!W10/'Pop and GDP'!C10</f>
-        <v>1.332524988873319</v>
+        <f>'Pop and GDP'!W10/'Pop and GDP'!W10</f>
+        <v>1</v>
       </c>
       <c r="W6">
-        <f>'Pop and GDP'!X10/'Pop and GDP'!C10</f>
-        <v>1.3524849911278081</v>
+        <f>'Pop and GDP'!X10/'Pop and GDP'!X10</f>
+        <v>1</v>
       </c>
       <c r="X6">
-        <f>'Pop and GDP'!Y10/'Pop and GDP'!C10</f>
-        <v>1.3725795824919489</v>
+        <f>'Pop and GDP'!Y10/'Pop and GDP'!Y10</f>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <f>'Pop and GDP'!Z10/'Pop and GDP'!C10</f>
-        <v>1.3925896305164529</v>
+        <f>'Pop and GDP'!Z10/'Pop and GDP'!Z10</f>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <f>'Pop and GDP'!AA10/'Pop and GDP'!C10</f>
-        <v>1.4122231205626894</v>
+        <f>'Pop and GDP'!AA10/'Pop and GDP'!AA10</f>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <f>'Pop and GDP'!AB10/'Pop and GDP'!C10</f>
-        <v>1.4318046213138618</v>
+        <f>'Pop and GDP'!AB10/'Pop and GDP'!AB10</f>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <f>'Pop and GDP'!AC10/'Pop and GDP'!C10</f>
-        <v>1.451828759894972</v>
+        <f>'Pop and GDP'!AC10/'Pop and GDP'!AC10</f>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <f>'Pop and GDP'!AD10/'Pop and GDP'!C10</f>
-        <v>1.4716604894962189</v>
+        <f>'Pop and GDP'!AD10/'Pop and GDP'!AD10</f>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <f>'Pop and GDP'!AE10/'Pop and GDP'!C10</f>
-        <v>1.4910894235310352</v>
+        <f>'Pop and GDP'!AE10/'Pop and GDP'!AE10</f>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <f>'Pop and GDP'!AF10/'Pop and GDP'!C10</f>
-        <v>1.5104619953394269</v>
+        <f>'Pop and GDP'!AF10/'Pop and GDP'!AF10</f>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <f>'Pop and GDP'!AG10/'Pop and GDP'!C10</f>
-        <v>1.5296659663498073</v>
+        <f>'Pop and GDP'!AG10/'Pop and GDP'!AG10</f>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <f>'Pop and GDP'!AH10/'Pop and GDP'!C10</f>
-        <v>1.5493718527041236</v>
+        <f>'Pop and GDP'!AH10/'Pop and GDP'!AH10</f>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <f>'Pop and GDP'!AI10/'Pop and GDP'!C10</f>
-        <v>1.5692220457933372</v>
+        <f>'Pop and GDP'!AI10/'Pop and GDP'!AI10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -4543,35 +4511,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -4831,14 +4770,70 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AAAB6C8-1A92-4888-B785-3702AD181163}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44BCD1D9-CA3E-4BE7-8557-D799A8B6D131}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{973C6202-EFF2-4EBD-9A40-DFA7A47121EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{973C6202-EFF2-4EBD-9A40-DFA7A47121EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44BCD1D9-CA3E-4BE7-8557-D799A8B6D131}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AAAB6C8-1A92-4888-B785-3702AD181163}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0896C9E1-CB13-452C-ADF4-AA86B140D177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CD0BC7-208D-4A5B-B077-8613CCE7E88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="18915" windowHeight="16875" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3570,8 +3570,8 @@
   </sheetPr>
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4373,135 +4373,135 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <f>'Pop and GDP'!C10/'Pop and GDP'!C10</f>
+        <f>B3</f>
         <v>1</v>
       </c>
       <c r="C7">
-        <f>'Pop and GDP'!D10/'Pop and GDP'!C10</f>
+        <f t="shared" ref="C7:AH7" si="0">C3</f>
         <v>1.0163630232698253</v>
       </c>
       <c r="D7">
-        <f>'Pop and GDP'!E10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>0.95585234262791796</v>
       </c>
       <c r="E7">
-        <f>'Pop and GDP'!F10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>0.99785629187081781</v>
       </c>
       <c r="F7">
-        <f>'Pop and GDP'!G10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.0280061959578566</v>
       </c>
       <c r="G7">
-        <f>'Pop and GDP'!H10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.0478359820340544</v>
       </c>
       <c r="H7">
-        <f>'Pop and GDP'!I10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.0688226513957426</v>
       </c>
       <c r="I7">
-        <f>'Pop and GDP'!J10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.0891261717026639</v>
       </c>
       <c r="J7">
-        <f>'Pop and GDP'!K10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.1127210516802746</v>
       </c>
       <c r="K7">
-        <f>'Pop and GDP'!L10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.1363086434389509</v>
       </c>
       <c r="L7">
-        <f>'Pop and GDP'!M10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.1580382252506662</v>
       </c>
       <c r="M7">
-        <f>'Pop and GDP'!N10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.1765371825494773</v>
       </c>
       <c r="N7">
-        <f>'Pop and GDP'!O10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.1930284784725449</v>
       </c>
       <c r="O7">
-        <f>'Pop and GDP'!P10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.2112796363275928</v>
       </c>
       <c r="P7">
-        <f>'Pop and GDP'!Q10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.23167595995561</v>
       </c>
       <c r="Q7">
-        <f>'Pop and GDP'!R10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.249665713691551</v>
       </c>
       <c r="R7">
-        <f>'Pop and GDP'!S10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.2655817262000781</v>
       </c>
       <c r="S7">
-        <f>'Pop and GDP'!T10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.2819802188020499</v>
       </c>
       <c r="T7">
-        <f>'Pop and GDP'!U10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.2976450306979781</v>
       </c>
       <c r="U7">
-        <f>'Pop and GDP'!V10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.314053726806458</v>
       </c>
       <c r="V7">
-        <f>'Pop and GDP'!W10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.332524988873319</v>
       </c>
       <c r="W7">
-        <f>'Pop and GDP'!X10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.3524849911278081</v>
       </c>
       <c r="X7">
-        <f>'Pop and GDP'!Y10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.3725795824919489</v>
       </c>
       <c r="Y7">
-        <f>'Pop and GDP'!Z10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.3925896305164529</v>
       </c>
       <c r="Z7">
-        <f>'Pop and GDP'!AA10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.4122231205626894</v>
       </c>
       <c r="AA7">
-        <f>'Pop and GDP'!AB10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.4318046213138618</v>
       </c>
       <c r="AB7">
-        <f>'Pop and GDP'!AC10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.451828759894972</v>
       </c>
       <c r="AC7">
-        <f>'Pop and GDP'!AD10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.4716604894962189</v>
       </c>
       <c r="AD7">
-        <f>'Pop and GDP'!AE10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.4910894235310352</v>
       </c>
       <c r="AE7">
-        <f>'Pop and GDP'!AF10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.5104619953394269</v>
       </c>
       <c r="AF7">
-        <f>'Pop and GDP'!AG10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.5296659663498073</v>
       </c>
       <c r="AG7">
-        <f>'Pop and GDP'!AH10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.5493718527041236</v>
       </c>
       <c r="AH7">
-        <f>'Pop and GDP'!AI10/'Pop and GDP'!C10</f>
+        <f t="shared" si="0"/>
         <v>1.5692220457933372</v>
       </c>
     </row>
@@ -4771,6 +4771,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -4788,15 +4797,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4820,6 +4820,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AAAB6C8-1A92-4888-B785-3702AD181163}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{973C6202-EFF2-4EBD-9A40-DFA7A47121EB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4828,12 +4836,4 @@
     <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AAAB6C8-1A92-4888-B785-3702AD181163}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -4572,8 +4572,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -4599,6 +4599,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4699,6 +4700,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -4840,5 +4846,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44BCD1D9-CA3E-4BE7-8557-D799A8B6D131}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9910E01-6C3D-4189-9B3C-8B4DADBA48F7}"/>
 </file>